--- a/other/文件校验和.xlsx
+++ b/other/文件校验和.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github\python\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AC48EC-1891-48E7-969B-26D33B1F813B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC65283F-353E-4E97-A0E7-E66FED859498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9925EB15-CFB3-4EB7-AC36-566727E8BADE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9925EB15-CFB3-4EB7-AC36-566727E8BADE}"/>
   </bookViews>
   <sheets>
-    <sheet name="文件信息" sheetId="1" r:id="rId1"/>
+    <sheet name="大致文件信息" sheetId="1" r:id="rId1"/>
+    <sheet name="详细文件信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>.git</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -54,9 +55,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>G:\github\python\.git</t>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -80,9 +78,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>G:\github\python\README.md</t>
-  </si>
-  <si>
     <t>md文件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -95,24 +90,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>G:\github\python\.idea</t>
-  </si>
-  <si>
     <t>功能大全</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>G:\github\python\功能大全</t>
-  </si>
-  <si>
     <t>other</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>G:\github\python\other</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>存储于.\other\功能大全.txt文件内</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -126,6 +111,142 @@
   </si>
   <si>
     <t>存储于.\other\other.txt文件内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="2" type="noConversion" alignment="distributed"/>
+  </si>
+  <si>
+    <t>安装文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python安装包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.\.git</t>
+  </si>
+  <si>
+    <t>.\README.md</t>
+  </si>
+  <si>
+    <t>.\.idea</t>
+  </si>
+  <si>
+    <t>.\功能大全</t>
+  </si>
+  <si>
+    <t>.\other</t>
+  </si>
+  <si>
+    <t>build</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>localpycs</t>
+  </si>
+  <si>
+    <t>dist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.\</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.\python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件夹名</t>
+  </si>
+  <si>
+    <t>内部文件文件夹 + 文件大小对于文件，单位为字节</t>
+  </si>
+  <si>
+    <t>类型子文件夹</t>
+  </si>
+  <si>
+    <t>打包文件Windows</t>
+  </si>
+  <si>
+    <t>安装文件、打包文件Windows、源代码、16901介绍.docx、738 介绍.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28604208 python-3.13.2-amd64.exe、515366 安装说明.docx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>build、dist、711 1.spec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>localpycs、25779599 1.pkg、156524 Analysis-00.toc、1397246 base_library.zip、110616 EXE-00.toc、3339 generated-865c5ddfb9ac9dc06b9b13ff0f00707b124697c04a9e2ae13e07cbbfa69f820b.ico、109052 PKG-00.toc 、5205172PYZ-00.pyz、48116 PYZ-00.toc、29631 warn-1.txt、868961 xref-1.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspectionProfiles</t>
+  </si>
+  <si>
+    <t>4813 pyimod01_archive.pyc、31848 pyimod02_importers.pyc、6469 pyimod03_ctypes.pyc、1698 pyimod04_pywin32.pyc、305 struct.pyc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>945 1.png、2614 1.pyw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.idea、other、功能大全、215 README.md</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspectionProfiles、190 .gitignore、5 .name、284 misc.xml、271 modules.xml、325 python.iml、167 vcs.xml、workspace.xml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.\python\.idea\inspectionProfiles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.\python\功能大全</t>
+  </si>
+  <si>
+    <t>.\python\功能大全\安装文件</t>
+  </si>
+  <si>
+    <t>.\python\功能大全\安装文件\python安装包</t>
+  </si>
+  <si>
+    <t>.\python\功能大全\打包文件Windows</t>
+  </si>
+  <si>
+    <t>.\python\功能大全\打包文件Windows\build</t>
+  </si>
+  <si>
+    <t>.\python\功能大全\打包文件Windows\build\1</t>
+  </si>
+  <si>
+    <t>.\python\功能大全\打包文件Windows\build\1\localpycs</t>
+  </si>
+  <si>
+    <t>.\python\功能大全\打包文件Windows\dist</t>
+  </si>
+  <si>
+    <t>174 profiles_settings.xml</t>
+  </si>
+  <si>
+    <t>.\python\other</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22693 .git.txt、892 .idea.txt、468 other.txt、3768 功能大全.txt、12073 文件校验和.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +354,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47888816-2B11-47B9-8838-65AF5824DC80}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -585,7 +709,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -594,10 +718,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -608,81 +732,353 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB086B6B-30EF-4848-9A25-F9AB34DEEF77}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="228.25" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
